--- a/CaVaTeCo/form_u_documentos.xlsx
+++ b/CaVaTeCo/form_u_documentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB9267-2340-4213-8C34-712949F07259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86894D83-7671-4005-88DB-57D823BA5F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>Escolha o ficheiro, em formato pdf, que tem cópia do documento:</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>select_one_from_file enum_names.csv</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>"no"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
 </sst>
 </file>
@@ -1766,11 +1766,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,10 +1897,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="60" t="s">
         <v>157</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
         <v>126</v>
       </c>
       <c r="N7" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
         <v>62</v>
       </c>
       <c r="O10" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1984,7 +1984,7 @@
         <v>130</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J14" s="62" t="s">
         <v>20</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="15" spans="1:16" s="62" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>129</v>
@@ -2001,7 +2001,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="65" t="s">
         <v>132</v>
@@ -2018,7 +2018,7 @@
         <v>133</v>
       </c>
       <c r="N16" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2102,19 +2102,19 @@
     </row>
     <row r="21" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="C21" s="62" t="s">
         <v>153</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>154</v>
       </c>
       <c r="D21" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J21" s="62" t="s">
         <v>20</v>
@@ -2128,10 +2128,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="62" t="s">
         <v>144</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>145</v>
       </c>
       <c r="J22" s="62" t="s">
         <v>20</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="23" spans="1:14" s="62" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>73</v>
@@ -2148,10 +2148,10 @@
         <v>110</v>
       </c>
       <c r="D23" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>147</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>148</v>
       </c>
       <c r="J23" s="62" t="s">
         <v>20</v>
@@ -2165,7 +2165,7 @@
         <v>111</v>
       </c>
       <c r="N24" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -7228,12 +7228,12 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7246,8 +7246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7285,7 +7285,7 @@
         <v>136</v>
       </c>
       <c r="C2" s="51">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="52" t="s">
